--- a/30 practice/corr/corr.xlsx
+++ b/30 practice/corr/corr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\DataVisualization\112-2-econDV-practice\corr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\DataVisualization\112-2-econDV-practice\30 practice\corr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F991E7-2B71-4CF2-9F98-633D13B5FEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612B8721-EF2D-4A85-B66F-70AA6E0AC497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31995" yWindow="690" windowWidth="20895" windowHeight="13815" activeTab="4" xr2:uid="{D3A9ECFD-267F-4AC7-959E-3E3793DBD20D}"/>
+    <workbookView xWindow="31995" yWindow="690" windowWidth="20895" windowHeight="13815" activeTab="6" xr2:uid="{D3A9ECFD-267F-4AC7-959E-3E3793DBD20D}"/>
   </bookViews>
   <sheets>
     <sheet name="xy" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="xyz2" sheetId="5" r:id="rId4"/>
     <sheet name="xyz3" sheetId="6" r:id="rId5"/>
     <sheet name="工作表1" sheetId="7" r:id="rId6"/>
+    <sheet name="xyz31" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="63">
   <si>
     <t>x1</t>
   </si>
@@ -2117,7 +2118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC347905-559D-437B-BDF6-94F93AE4428C}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -2819,4 +2820,275 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E4D20C-C6FE-4330-A7F6-D954A8589C27}">
+  <dimension ref="A1:S10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2">
+        <v>-0.29270000000000002</v>
+      </c>
+      <c r="C2">
+        <v>-0.123</v>
+      </c>
+      <c r="R2">
+        <v>0.2802</v>
+      </c>
+      <c r="S2">
+        <v>0.50549999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3">
+        <v>-0.20780000000000001</v>
+      </c>
+      <c r="C3">
+        <v>-0.2888</v>
+      </c>
+      <c r="D3">
+        <v>-0.1492</v>
+      </c>
+      <c r="Q3">
+        <v>0.2419</v>
+      </c>
+      <c r="R3">
+        <v>0.46850000000000003</v>
+      </c>
+      <c r="S3">
+        <v>0.27379999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4">
+        <v>-0.20069999999999999</v>
+      </c>
+      <c r="D4">
+        <v>-0.3014</v>
+      </c>
+      <c r="E4">
+        <v>-0.22850000000000001</v>
+      </c>
+      <c r="P4">
+        <v>0.29609999999999997</v>
+      </c>
+      <c r="Q4">
+        <v>0.48170000000000002</v>
+      </c>
+      <c r="R4">
+        <v>0.29720000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5">
+        <v>-0.15079999999999999</v>
+      </c>
+      <c r="E5">
+        <v>-0.25359999999999999</v>
+      </c>
+      <c r="F5">
+        <v>-9.8199999999999996E-2</v>
+      </c>
+      <c r="O5">
+        <v>0.15720000000000001</v>
+      </c>
+      <c r="P5">
+        <v>0.47189999999999999</v>
+      </c>
+      <c r="Q5">
+        <v>0.23269999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6">
+        <v>-0.12509999999999999</v>
+      </c>
+      <c r="F6">
+        <v>-0.17949999999999999</v>
+      </c>
+      <c r="G6">
+        <v>-9.8000000000000004E-2</v>
+      </c>
+      <c r="N6">
+        <v>9.9099999999999994E-2</v>
+      </c>
+      <c r="O6">
+        <v>0.30680000000000002</v>
+      </c>
+      <c r="P6">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7">
+        <v>-8.4000000000000005E-2</v>
+      </c>
+      <c r="G7">
+        <v>-0.1822</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.1663</v>
+      </c>
+      <c r="N7">
+        <v>0.2424</v>
+      </c>
+      <c r="O7">
+        <v>0.1618</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8">
+        <v>-0.1583</v>
+      </c>
+      <c r="H8">
+        <v>-0.27489999999999998</v>
+      </c>
+      <c r="I8">
+        <v>-0.15989999999999999</v>
+      </c>
+      <c r="L8">
+        <v>0.21629999999999999</v>
+      </c>
+      <c r="M8">
+        <v>0.39860000000000001</v>
+      </c>
+      <c r="N8">
+        <v>0.1734</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9">
+        <v>-0.14630000000000001</v>
+      </c>
+      <c r="I9">
+        <v>-0.18729999999999999</v>
+      </c>
+      <c r="J9">
+        <v>-0.13009999999999999</v>
+      </c>
+      <c r="K9">
+        <v>0.21909999999999999</v>
+      </c>
+      <c r="L9">
+        <v>0.29270000000000002</v>
+      </c>
+      <c r="M9">
+        <v>0.29389999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10">
+        <v>-0.15040000000000001</v>
+      </c>
+      <c r="J10">
+        <v>-0.14349999999999999</v>
+      </c>
+      <c r="K10">
+        <v>0.3362</v>
+      </c>
+      <c r="L10">
+        <v>0.20669999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/30 practice/corr/corr.xlsx
+++ b/30 practice/corr/corr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\DataVisualization\112-2-econDV-practice\30 practice\corr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612B8721-EF2D-4A85-B66F-70AA6E0AC497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F04CBD-CD1D-4EBE-82CF-06E78E6F6A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31995" yWindow="690" windowWidth="20895" windowHeight="13815" activeTab="6" xr2:uid="{D3A9ECFD-267F-4AC7-959E-3E3793DBD20D}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12800" activeTab="4" xr2:uid="{D3A9ECFD-267F-4AC7-959E-3E3793DBD20D}"/>
   </bookViews>
   <sheets>
     <sheet name="xy" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="72">
   <si>
     <t>x1</t>
   </si>
@@ -229,6 +229,33 @@
   </si>
   <si>
     <t>SP_13y</t>
+  </si>
+  <si>
+    <t>30y</t>
+  </si>
+  <si>
+    <t>27y</t>
+  </si>
+  <si>
+    <t>24y</t>
+  </si>
+  <si>
+    <t>22y</t>
+  </si>
+  <si>
+    <t>18y</t>
+  </si>
+  <si>
+    <t>16y</t>
+  </si>
+  <si>
+    <t>15y</t>
+  </si>
+  <si>
+    <t>14y</t>
+  </si>
+  <si>
+    <t>13y</t>
   </si>
 </sst>
 </file>
@@ -598,9 +625,9 @@
       <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.7" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -629,7 +656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -661,7 +688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -693,7 +720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -725,7 +752,7 @@
         <v>-0.1143</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -757,7 +784,7 @@
         <v>-0.123</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -789,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -821,7 +848,7 @@
         <v>-0.1588</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -853,7 +880,7 @@
         <v>-0.14050000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -885,7 +912,7 @@
         <v>-0.123</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -931,9 +958,9 @@
       <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.7" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -962,7 +989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -985,7 +1012,7 @@
         <v>7.8600000000000003E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1017,7 +1044,7 @@
         <v>0.13619999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1049,7 +1076,7 @@
         <v>0.1799</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1081,7 +1108,7 @@
         <v>0.1265</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1113,7 +1140,7 @@
         <v>0.16889999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1145,7 +1172,7 @@
         <v>0.2394</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1177,7 +1204,7 @@
         <v>0.21970000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1209,7 +1236,7 @@
         <v>0.2802</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1252,9 +1279,9 @@
       <selection sqref="A1:S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.7" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -1310,7 +1337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1369,7 +1396,7 @@
         <v>0.50549999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1428,7 +1455,7 @@
         <v>0.2802</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1487,7 +1514,7 @@
         <v>0.21970000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1546,7 +1573,7 @@
         <v>0.2394</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1605,7 +1632,7 @@
         <v>0.16889999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1664,7 +1691,7 @@
         <v>0.1265</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1723,7 +1750,7 @@
         <v>0.1799</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1782,7 +1809,7 @@
         <v>0.13619999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1855,9 +1882,9 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.7" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -1913,7 +1940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1930,7 +1957,7 @@
         <v>0.50549999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1953,7 +1980,7 @@
         <v>0.2802</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1976,7 +2003,7 @@
         <v>0.2419</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1999,7 +2026,7 @@
         <v>0.29609999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2022,7 +2049,7 @@
         <v>0.15720000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2045,7 +2072,7 @@
         <v>9.9099999999999994E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2068,7 +2095,7 @@
         <v>0.1663</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2091,7 +2118,7 @@
         <v>0.21629999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2118,16 +2145,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC347905-559D-437B-BDF6-94F93AE4428C}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.87890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>52</v>
       </c>
@@ -2183,9 +2210,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B2">
         <v>-0.29270000000000002</v>
@@ -2242,9 +2269,9 @@
         <v>0.50549999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B3">
         <v>-0.20780000000000001</v>
@@ -2301,9 +2328,9 @@
         <v>0.27379999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B4">
         <v>-0.16370000000000001</v>
@@ -2360,9 +2387,9 @@
         <v>0.23580000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B5">
         <v>-0.1764</v>
@@ -2419,9 +2446,9 @@
         <v>0.1638</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2478,9 +2505,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B7">
         <v>-0.1008</v>
@@ -2537,9 +2564,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B8">
         <v>-9.69E-2</v>
@@ -2596,9 +2623,9 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B9">
         <v>-9.5899999999999999E-2</v>
@@ -2655,9 +2682,9 @@
         <v>0.12989999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2729,9 +2756,9 @@
       <selection activeCell="E18" activeCellId="1" sqref="C20 E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.7" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" t="s">
         <v>27</v>
       </c>
@@ -2760,7 +2787,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" t="s">
         <v>52</v>
       </c>
@@ -2826,16 +2853,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E4D20C-C6FE-4330-A7F6-D954A8589C27}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.87890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>52</v>
       </c>
@@ -2891,7 +2918,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -2908,7 +2935,7 @@
         <v>0.50549999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -2931,7 +2958,7 @@
         <v>0.27379999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -2954,7 +2981,7 @@
         <v>0.29720000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -2977,7 +3004,7 @@
         <v>0.23269999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -3000,7 +3027,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -3023,7 +3050,7 @@
         <v>0.1618</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -3046,7 +3073,7 @@
         <v>0.1734</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -3069,7 +3096,7 @@
         <v>0.29389999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>62</v>
       </c>
